--- a/src/test/resources/fr/remiguitreau/aroeven/barcode/xls/equipments_bad.xlsx
+++ b/src/test/resources/fr/remiguitreau/aroeven/barcode/xls/equipments_bad.xlsx
@@ -17,13 +17,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
-    <t>Marque</t>
+    <t>Type</t>
   </si>
   <si>
     <t>Taille</t>
   </si>
   <si>
-    <t>Nombre</t>
+    <t>Identifiant</t>
   </si>
   <si>
     <t>Paire</t>
@@ -239,7 +239,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
